--- a/dados/lojadosomeacessorios loja2.xlsx
+++ b/dados/lojadosomeacessorios loja2.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,14 +517,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3711972855-potncia-jfa-ap380x4-canais-refrigerado-a-agua-2-ohms-novo-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3711972855-potncia-jfa-ap380x4-canais-refrigerado-a-agua-2-ohms-novo-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,18 +534,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amplificador Modulo Jfa Ap380x4 Canais Crossover Integrado  </t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>372.21</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>77.31999999999999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -553,19 +557,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3711920289-amplificador-modulo-jfa-ap380x4-canais-crossover-integrado-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:435593161#searchVariation=MLB33922926&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -584,7 +588,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>108.9</v>
+        <v>107.81</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -603,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:435593161#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:435593161#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -620,20 +624,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Controle Longa Distância Jfa K1200 Acqua Metros Prova D'água</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>78.90000000000001</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -648,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:435593161#searchVariation=MLB33922926&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3293792319-controle-longa-distncia-jfa-k1200-acqua-metros-prova-dagua-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -674,7 +678,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103.4</v>
+        <v>94.44</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -688,19 +692,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2639485651-controle-jfa-k1200-longa-distncia-com-receptor-todas-cores-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2639423952-controle-jfa-k1200-longa-distncia-com-receptor-todas-cores-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -719,7 +723,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>95.40000000000001</v>
+        <v>102.36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -733,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2639423952-controle-jfa-k1200-longa-distncia-com-receptor-todas-cores-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2639485651-controle-jfa-k1200-longa-distncia-com-receptor-todas-cores-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,22 +759,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Acqua Metros Prova D'água</t>
+          <t xml:space="preserve">Amplificador Modulo Jfa Ap380x4 Canais Crossover Integrado  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>372.21</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -778,12 +778,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3293792319-controle-longa-distncia-jfa-k1200-acqua-metros-prova-dagua-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9c3ab178-d379-4afe-a45c-b0ee2e3a3f3b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3711920289-amplificador-modulo-jfa-ap380x4-canais-crossover-integrado-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D82d3f783-b609-4268-b1f8-18ce1238cf4c</t>
         </is>
       </c>
     </row>
